--- a/UCL Team Goals 2526.xlsx
+++ b/UCL Team Goals 2526.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>TEAM</t>
   </si>
@@ -494,15 +494,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,11 +548,8 @@
       <c r="N1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -592,11 +592,8 @@
       <c r="N2">
         <v>27</v>
       </c>
-      <c r="O2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -639,11 +636,8 @@
       <c r="N3">
         <v>36</v>
       </c>
-      <c r="O3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -686,11 +680,8 @@
       <c r="N4">
         <v>41</v>
       </c>
-      <c r="O4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -733,11 +724,8 @@
       <c r="N5">
         <v>29</v>
       </c>
-      <c r="O5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -780,11 +768,8 @@
       <c r="N6">
         <v>29</v>
       </c>
-      <c r="O6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -827,11 +812,8 @@
       <c r="N7">
         <v>41</v>
       </c>
-      <c r="O7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -874,11 +856,8 @@
       <c r="N8">
         <v>15</v>
       </c>
-      <c r="O8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -921,11 +900,8 @@
       <c r="N9">
         <v>21</v>
       </c>
-      <c r="O9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -968,11 +944,8 @@
       <c r="N10">
         <v>8</v>
       </c>
-      <c r="O10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1015,11 +988,8 @@
       <c r="N11">
         <v>12</v>
       </c>
-      <c r="O11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1062,11 +1032,8 @@
       <c r="N12">
         <v>13</v>
       </c>
-      <c r="O12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1109,11 +1076,8 @@
       <c r="N13">
         <v>26</v>
       </c>
-      <c r="O13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1156,11 +1120,8 @@
       <c r="N14">
         <v>10</v>
       </c>
-      <c r="O14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1203,11 +1164,8 @@
       <c r="N15">
         <v>3</v>
       </c>
-      <c r="O15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1250,11 +1208,8 @@
       <c r="N16">
         <v>10</v>
       </c>
-      <c r="O16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1297,11 +1252,8 @@
       <c r="N17">
         <v>11</v>
       </c>
-      <c r="O17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1344,11 +1296,8 @@
       <c r="N18">
         <v>16</v>
       </c>
-      <c r="O18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1391,11 +1340,8 @@
       <c r="N19">
         <v>9</v>
       </c>
-      <c r="O19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1438,11 +1384,8 @@
       <c r="N20">
         <v>10</v>
       </c>
-      <c r="O20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1485,11 +1428,8 @@
       <c r="N21">
         <v>11</v>
       </c>
-      <c r="O21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1532,11 +1472,8 @@
       <c r="N22">
         <v>18</v>
       </c>
-      <c r="O22">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1579,11 +1516,8 @@
       <c r="N23">
         <v>3</v>
       </c>
-      <c r="O23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1626,11 +1560,8 @@
       <c r="N24">
         <v>7</v>
       </c>
-      <c r="O24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1673,11 +1604,8 @@
       <c r="N25">
         <v>10</v>
       </c>
-      <c r="O25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1720,11 +1648,8 @@
       <c r="N26">
         <v>11</v>
       </c>
-      <c r="O26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1767,11 +1692,8 @@
       <c r="N27">
         <v>16</v>
       </c>
-      <c r="O27">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1814,11 +1736,8 @@
       <c r="N28">
         <v>12</v>
       </c>
-      <c r="O28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1861,11 +1780,8 @@
       <c r="N29">
         <v>7</v>
       </c>
-      <c r="O29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1908,11 +1824,8 @@
       <c r="N30">
         <v>12</v>
       </c>
-      <c r="O30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1955,11 +1868,8 @@
       <c r="N31">
         <v>3</v>
       </c>
-      <c r="O31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -2002,11 +1912,8 @@
       <c r="N32">
         <v>13</v>
       </c>
-      <c r="O32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2049,11 +1956,8 @@
       <c r="N33">
         <v>5</v>
       </c>
-      <c r="O33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -2096,11 +2000,8 @@
       <c r="N34">
         <v>9</v>
       </c>
-      <c r="O34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -2143,11 +2044,8 @@
       <c r="N35">
         <v>11</v>
       </c>
-      <c r="O35">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2190,11 +2088,8 @@
       <c r="N36">
         <v>8</v>
       </c>
-      <c r="O36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2236,9 +2131,6 @@
       </c>
       <c r="N37">
         <v>4</v>
-      </c>
-      <c r="O37">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/UCL Team Goals 2526.xlsx
+++ b/UCL Team Goals 2526.xlsx
@@ -209,10 +209,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -496,12 +495,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -554,43 +560,43 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>0.34375</v>
       </c>
       <c r="C2">
-        <v>21.5</v>
+        <v>0.3359375</v>
       </c>
       <c r="D2">
-        <v>159</v>
+        <v>2.484375</v>
       </c>
       <c r="E2">
-        <v>63</v>
+        <v>0.984375</v>
       </c>
       <c r="F2" s="1">
         <v>0.54700000000000004</v>
       </c>
       <c r="G2">
-        <v>314</v>
+        <v>39.25</v>
       </c>
       <c r="H2">
-        <v>38</v>
+        <v>4.75</v>
       </c>
       <c r="I2">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="J2">
-        <v>1373</v>
+        <v>171.625</v>
       </c>
       <c r="K2">
-        <v>1094</v>
+        <v>136.75</v>
       </c>
       <c r="L2">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M2">
-        <v>22</v>
+        <v>2.75</v>
       </c>
       <c r="N2">
-        <v>27</v>
+        <v>3.375</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -598,43 +604,43 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>0.359375</v>
       </c>
       <c r="C3">
-        <v>20.3</v>
+        <v>0.31718750000000001</v>
       </c>
       <c r="D3">
-        <v>135</v>
+        <v>2.109375</v>
       </c>
       <c r="E3">
-        <v>63</v>
+        <v>0.984375</v>
       </c>
       <c r="F3" s="1">
         <v>0.54500000000000004</v>
       </c>
       <c r="G3">
-        <v>260</v>
+        <v>32.5</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>3.25</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1102</v>
+        <v>137.75</v>
       </c>
       <c r="K3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="L3">
-        <v>92</v>
+        <v>11.5</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>2.375</v>
       </c>
       <c r="N3">
-        <v>36</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -642,43 +648,43 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>0.328125</v>
       </c>
       <c r="C4">
-        <v>17.899999999999999</v>
+        <v>0.27968749999999998</v>
       </c>
       <c r="D4">
-        <v>173</v>
+        <v>2.703125</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>0.953125</v>
       </c>
       <c r="F4" s="1">
         <v>0.67900000000000005</v>
       </c>
       <c r="G4">
-        <v>318</v>
+        <v>39.75</v>
       </c>
       <c r="H4">
-        <v>17</v>
+        <v>2.125</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>1.375</v>
       </c>
       <c r="J4">
-        <v>1549</v>
+        <v>193.625</v>
       </c>
       <c r="K4">
-        <v>1329</v>
+        <v>166.125</v>
       </c>
       <c r="L4">
-        <v>92</v>
+        <v>11.5</v>
       </c>
       <c r="M4">
-        <v>21</v>
+        <v>2.625</v>
       </c>
       <c r="N4">
-        <v>41</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -686,43 +692,43 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>0.34375</v>
       </c>
       <c r="C5">
-        <v>20.2</v>
+        <v>0.31562499999999999</v>
       </c>
       <c r="D5">
-        <v>139</v>
+        <v>2.171875</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>0.953125</v>
       </c>
       <c r="F5" s="1">
         <v>0.58399999999999996</v>
       </c>
       <c r="G5">
-        <v>276</v>
+        <v>34.5</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>1.125</v>
       </c>
       <c r="J5">
-        <v>1580</v>
+        <v>197.5</v>
       </c>
       <c r="K5">
-        <v>1313</v>
+        <v>164.125</v>
       </c>
       <c r="L5">
-        <v>49</v>
+        <v>6.125</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>0.625</v>
       </c>
       <c r="N5">
-        <v>29</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -730,43 +736,43 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2">
-        <v>19</v>
+        <v>0.328125</v>
+      </c>
+      <c r="C6">
+        <v>0.296875</v>
       </c>
       <c r="D6">
-        <v>156</v>
+        <v>2.4375</v>
       </c>
       <c r="E6">
-        <v>58</v>
-      </c>
-      <c r="F6" s="3">
+        <v>0.90625</v>
+      </c>
+      <c r="F6" s="2">
         <v>0.57999999999999996</v>
       </c>
       <c r="G6">
-        <v>278</v>
+        <v>34.75</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>2.5</v>
       </c>
       <c r="I6">
-        <v>17</v>
+        <v>2.125</v>
       </c>
       <c r="J6">
-        <v>1322</v>
+        <v>165.25</v>
       </c>
       <c r="K6">
-        <v>1062</v>
+        <v>132.75</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="M6">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="N6">
-        <v>29</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -774,43 +780,43 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>0.234375</v>
       </c>
       <c r="C7">
-        <v>14.3</v>
+        <v>0.22343750000000001</v>
       </c>
       <c r="D7">
-        <v>126</v>
+        <v>1.96875</v>
       </c>
       <c r="E7">
-        <v>57</v>
+        <v>0.890625</v>
       </c>
       <c r="F7" s="1">
         <v>0.60099999999999998</v>
       </c>
       <c r="G7">
-        <v>284</v>
+        <v>35.5</v>
       </c>
       <c r="H7">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>0.875</v>
       </c>
       <c r="J7">
-        <v>1695</v>
+        <v>211.875</v>
       </c>
       <c r="K7">
-        <v>1445</v>
+        <v>180.625</v>
       </c>
       <c r="L7">
-        <v>81</v>
+        <v>10.125</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>2.875</v>
       </c>
       <c r="N7">
-        <v>41</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -818,43 +824,43 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>0.34375</v>
       </c>
       <c r="C8">
-        <v>14.3</v>
+        <v>0.22343750000000001</v>
       </c>
       <c r="D8">
-        <v>140</v>
+        <v>2.1875</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>0.859375</v>
       </c>
       <c r="F8" s="1">
         <v>0.64400000000000002</v>
       </c>
       <c r="G8">
-        <v>274</v>
+        <v>34.25</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>1.375</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>0.875</v>
       </c>
       <c r="J8">
-        <v>1371</v>
+        <v>171.375</v>
       </c>
       <c r="K8">
-        <v>1080</v>
+        <v>135</v>
       </c>
       <c r="L8">
-        <v>61</v>
+        <v>7.625</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="N8">
-        <v>15</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -862,43 +868,43 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>0.265625</v>
       </c>
       <c r="C9">
-        <v>14.6</v>
+        <v>0.22812499999999999</v>
       </c>
       <c r="D9">
-        <v>125</v>
+        <v>1.953125</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>0.796875</v>
       </c>
       <c r="F9" s="1">
         <v>0.53200000000000003</v>
       </c>
       <c r="G9">
-        <v>260</v>
+        <v>32.5</v>
       </c>
       <c r="H9">
-        <v>26</v>
+        <v>3.25</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="J9">
-        <v>1127</v>
+        <v>140.875</v>
       </c>
       <c r="K9">
-        <v>894</v>
+        <v>111.75</v>
       </c>
       <c r="L9">
-        <v>137</v>
+        <v>17.125</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>21</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -906,43 +912,43 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>0.21875</v>
       </c>
       <c r="C10">
-        <v>13.3</v>
+        <v>0.20781250000000001</v>
       </c>
       <c r="D10">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>0.765625</v>
       </c>
       <c r="F10" s="1">
         <v>0.48799999999999999</v>
       </c>
       <c r="G10">
-        <v>213</v>
+        <v>26.625</v>
       </c>
       <c r="H10">
-        <v>22</v>
+        <v>2.75</v>
       </c>
       <c r="I10">
-        <v>14</v>
+        <v>1.75</v>
       </c>
       <c r="J10">
-        <v>1075</v>
+        <v>134.375</v>
       </c>
       <c r="K10">
-        <v>843</v>
+        <v>105.375</v>
       </c>
       <c r="L10">
-        <v>98</v>
+        <v>12.25</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -950,43 +956,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>0.265625</v>
       </c>
       <c r="C11">
-        <v>14.8</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="D11">
-        <v>104</v>
+        <v>1.625</v>
       </c>
       <c r="E11">
-        <v>48</v>
+        <v>0.75</v>
       </c>
       <c r="F11" s="1">
         <v>0.47699999999999998</v>
       </c>
       <c r="G11">
-        <v>226</v>
+        <v>28.25</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>2.75</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>884</v>
+        <v>110.5</v>
       </c>
       <c r="K11">
-        <v>636</v>
+        <v>79.5</v>
       </c>
       <c r="L11">
-        <v>98</v>
+        <v>12.25</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>2.625</v>
       </c>
       <c r="N11">
-        <v>12</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -994,43 +1000,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>0.234375</v>
       </c>
       <c r="C12">
-        <v>16.399999999999999</v>
+        <v>0.25624999999999998</v>
       </c>
       <c r="D12">
-        <v>135</v>
+        <v>2.109375</v>
       </c>
       <c r="E12">
-        <v>43</v>
+        <v>0.671875</v>
       </c>
       <c r="F12" s="1">
         <v>0.55400000000000005</v>
       </c>
       <c r="G12">
-        <v>261</v>
+        <v>32.625</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="J12">
-        <v>1121</v>
+        <v>140.125</v>
       </c>
       <c r="K12">
-        <v>861</v>
+        <v>107.625</v>
       </c>
       <c r="L12">
-        <v>107</v>
+        <v>13.375</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>3.625</v>
       </c>
       <c r="N12">
-        <v>13</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1038,43 +1044,43 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>0.265625</v>
       </c>
       <c r="C13">
-        <v>13.7</v>
+        <v>0.21406249999999999</v>
       </c>
       <c r="D13">
-        <v>112</v>
+        <v>1.75</v>
       </c>
       <c r="E13">
-        <v>43</v>
+        <v>0.671875</v>
       </c>
       <c r="F13" s="1">
         <v>0.57399999999999995</v>
       </c>
       <c r="G13">
-        <v>215</v>
+        <v>26.875</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>1.375</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="J13">
-        <v>1241</v>
+        <v>155.125</v>
       </c>
       <c r="K13">
-        <v>1015</v>
+        <v>126.875</v>
       </c>
       <c r="L13">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>17</v>
+        <v>2.125</v>
       </c>
       <c r="N13">
-        <v>26</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1082,43 +1088,43 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>0.171875</v>
       </c>
       <c r="C14">
-        <v>8.6999999999999993</v>
+        <v>0.13593749999999999</v>
       </c>
       <c r="D14">
-        <v>110</v>
+        <v>1.71875</v>
       </c>
       <c r="E14">
-        <v>43</v>
+        <v>0.671875</v>
       </c>
       <c r="F14" s="1">
         <v>0.55400000000000005</v>
       </c>
       <c r="G14">
-        <v>172</v>
+        <v>21.5</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="J14">
-        <v>964</v>
+        <v>120.5</v>
       </c>
       <c r="K14">
-        <v>724</v>
+        <v>90.5</v>
       </c>
       <c r="L14">
-        <v>89</v>
+        <v>11.125</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>1.75</v>
       </c>
       <c r="N14">
-        <v>10</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1126,43 +1132,43 @@
         <v>30</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>0.21875</v>
       </c>
       <c r="C15">
-        <v>14.7</v>
+        <v>0.22968749999999999</v>
       </c>
       <c r="D15">
-        <v>98</v>
+        <v>1.53125</v>
       </c>
       <c r="E15">
-        <v>41</v>
+        <v>0.640625</v>
       </c>
       <c r="F15" s="1">
         <v>0.49399999999999999</v>
       </c>
       <c r="G15">
-        <v>193</v>
+        <v>24.125</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>1.75</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1066</v>
+        <v>133.25</v>
       </c>
       <c r="K15">
-        <v>802</v>
+        <v>100.25</v>
       </c>
       <c r="L15">
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>1.875</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1170,43 +1176,43 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>0.265625</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>0.21875</v>
       </c>
       <c r="D16">
-        <v>94</v>
+        <v>1.46875</v>
       </c>
       <c r="E16">
-        <v>41</v>
+        <v>0.640625</v>
       </c>
       <c r="F16" s="1">
         <v>0.50800000000000001</v>
       </c>
       <c r="G16">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>2.5</v>
       </c>
       <c r="I16">
-        <v>9</v>
+        <v>1.125</v>
       </c>
       <c r="J16">
-        <v>986</v>
+        <v>123.25</v>
       </c>
       <c r="K16">
-        <v>727</v>
+        <v>90.875</v>
       </c>
       <c r="L16">
-        <v>95</v>
+        <v>11.875</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>3.375</v>
       </c>
       <c r="N16">
-        <v>10</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1214,43 +1220,43 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>0.125</v>
       </c>
       <c r="C17">
-        <v>14.4</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D17">
-        <v>117</v>
+        <v>1.828125</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>0.625</v>
       </c>
       <c r="F17" s="1">
         <v>0.45800000000000002</v>
       </c>
       <c r="G17">
-        <v>214</v>
+        <v>26.75</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>968</v>
+        <v>121</v>
       </c>
       <c r="K17">
-        <v>713</v>
+        <v>89.125</v>
       </c>
       <c r="L17">
-        <v>73</v>
+        <v>9.125</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>1.75</v>
       </c>
       <c r="N17">
-        <v>11</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1258,43 +1264,43 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>0.234375</v>
       </c>
       <c r="C18">
-        <v>12.3</v>
+        <v>0.19218750000000001</v>
       </c>
       <c r="D18">
-        <v>102</v>
+        <v>1.59375</v>
       </c>
       <c r="E18">
-        <v>39</v>
+        <v>0.609375</v>
       </c>
       <c r="F18" s="1">
         <v>0.44400000000000001</v>
       </c>
       <c r="G18">
-        <v>196</v>
+        <v>24.5</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="J18">
-        <v>935</v>
+        <v>116.875</v>
       </c>
       <c r="K18">
-        <v>702</v>
+        <v>87.75</v>
       </c>
       <c r="L18">
-        <v>57</v>
+        <v>7.125</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1302,43 +1308,43 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>0.140625</v>
       </c>
       <c r="C19">
-        <v>12.2</v>
+        <v>0.19062499999999999</v>
       </c>
       <c r="D19">
-        <v>99</v>
+        <v>1.546875</v>
       </c>
       <c r="E19">
-        <v>39</v>
+        <v>0.609375</v>
       </c>
       <c r="F19" s="1">
         <v>0.50600000000000001</v>
       </c>
       <c r="G19">
-        <v>187</v>
+        <v>23.375</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>2.25</v>
       </c>
       <c r="I19">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="J19">
-        <v>810</v>
+        <v>101.25</v>
       </c>
       <c r="K19">
-        <v>569</v>
+        <v>71.125</v>
       </c>
       <c r="L19">
-        <v>106</v>
+        <v>13.25</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>3.75</v>
       </c>
       <c r="N19">
-        <v>9</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1346,43 +1352,43 @@
         <v>35</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>0.125</v>
       </c>
       <c r="C20">
-        <v>10.5</v>
+        <v>0.1640625</v>
       </c>
       <c r="D20">
-        <v>95</v>
+        <v>1.484375</v>
       </c>
       <c r="E20">
-        <v>39</v>
+        <v>0.609375</v>
       </c>
       <c r="F20" s="1">
         <v>0.35099999999999998</v>
       </c>
       <c r="G20">
-        <v>157</v>
+        <v>19.625</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>2.125</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>680</v>
+        <v>85</v>
       </c>
       <c r="K20">
-        <v>417</v>
+        <v>52.125</v>
       </c>
       <c r="L20">
-        <v>61</v>
+        <v>7.625</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>1.875</v>
       </c>
       <c r="N20">
-        <v>10</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1390,43 +1396,43 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>17</v>
+        <v>0.265625</v>
       </c>
       <c r="C21">
-        <v>11.2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D21">
-        <v>89</v>
+        <v>1.390625</v>
       </c>
       <c r="E21">
-        <v>39</v>
+        <v>0.609375</v>
       </c>
       <c r="F21" s="1">
         <v>0.48699999999999999</v>
       </c>
       <c r="G21">
-        <v>173</v>
+        <v>21.625</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="J21">
-        <v>751</v>
+        <v>93.875</v>
       </c>
       <c r="K21">
-        <v>542</v>
+        <v>67.75</v>
       </c>
       <c r="L21">
-        <v>51</v>
+        <v>6.375</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="N21">
-        <v>11</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1434,43 +1440,43 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>0.25</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>0.1875</v>
       </c>
       <c r="D22">
-        <v>113</v>
+        <v>1.765625</v>
       </c>
       <c r="E22">
-        <v>38</v>
+        <v>0.59375</v>
       </c>
       <c r="F22" s="1">
         <v>0.51700000000000002</v>
       </c>
       <c r="G22">
-        <v>153</v>
+        <v>19.125</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="J22">
-        <v>1086</v>
+        <v>135.75</v>
       </c>
       <c r="K22">
-        <v>844</v>
+        <v>105.5</v>
       </c>
       <c r="L22">
-        <v>109</v>
+        <v>13.625</v>
       </c>
       <c r="M22">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="N22">
-        <v>18</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1478,43 +1484,43 @@
         <v>16</v>
       </c>
       <c r="B23">
-        <v>19</v>
+        <v>0.296875</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>0.21875</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>1.5625</v>
       </c>
       <c r="E23">
-        <v>38</v>
+        <v>0.59375</v>
       </c>
       <c r="F23" s="1">
         <v>0.54600000000000004</v>
       </c>
       <c r="G23">
-        <v>210</v>
+        <v>26.25</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>0.625</v>
       </c>
       <c r="J23">
-        <v>1126</v>
+        <v>140.75</v>
       </c>
       <c r="K23">
-        <v>822</v>
+        <v>102.75</v>
       </c>
       <c r="L23">
-        <v>91</v>
+        <v>11.375</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>2.375</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1522,43 +1528,43 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>0.1875</v>
       </c>
       <c r="C24">
-        <v>11.1</v>
+        <v>0.17343749999999999</v>
       </c>
       <c r="D24">
-        <v>84</v>
+        <v>1.3125</v>
       </c>
       <c r="E24">
-        <v>37</v>
+        <v>0.578125</v>
       </c>
       <c r="F24" s="1">
         <v>0.39600000000000002</v>
       </c>
       <c r="G24">
-        <v>143</v>
+        <v>17.875</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="J24">
-        <v>788</v>
+        <v>98.5</v>
       </c>
       <c r="K24">
-        <v>504</v>
+        <v>63</v>
       </c>
       <c r="L24">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>2.75</v>
       </c>
       <c r="N24">
-        <v>7</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1566,43 +1572,43 @@
         <v>21</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>0.203125</v>
       </c>
       <c r="C25">
-        <v>12.4</v>
+        <v>0.19375000000000001</v>
       </c>
       <c r="D25">
-        <v>98</v>
+        <v>1.53125</v>
       </c>
       <c r="E25">
-        <v>36</v>
+        <v>0.5625</v>
       </c>
       <c r="F25" s="1">
         <v>0.52200000000000002</v>
       </c>
       <c r="G25">
-        <v>212</v>
+        <v>26.5</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J25">
-        <v>1021</v>
+        <v>127.625</v>
       </c>
       <c r="K25">
-        <v>799</v>
+        <v>99.875</v>
       </c>
       <c r="L25">
-        <v>73</v>
+        <v>9.125</v>
       </c>
       <c r="M25">
-        <v>11</v>
+        <v>1.375</v>
       </c>
       <c r="N25">
-        <v>10</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1610,43 +1616,43 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>0.15625</v>
       </c>
       <c r="C26">
-        <v>9.6</v>
+        <v>0.15</v>
       </c>
       <c r="D26">
-        <v>106</v>
+        <v>1.65625</v>
       </c>
       <c r="E26">
-        <v>33</v>
+        <v>0.515625</v>
       </c>
       <c r="F26" s="1">
         <v>0.41899999999999998</v>
       </c>
       <c r="G26">
-        <v>166</v>
+        <v>20.75</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="I26">
-        <v>11</v>
+        <v>1.375</v>
       </c>
       <c r="J26">
-        <v>1074</v>
+        <v>134.25</v>
       </c>
       <c r="K26">
-        <v>697</v>
+        <v>87.125</v>
       </c>
       <c r="L26">
-        <v>150</v>
+        <v>18.75</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>3.625</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1654,43 +1660,43 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>0.203125</v>
       </c>
       <c r="C27">
-        <v>9.1999999999999993</v>
+        <v>0.14374999999999999</v>
       </c>
       <c r="D27">
-        <v>82</v>
+        <v>1.28125</v>
       </c>
       <c r="E27">
-        <v>33</v>
+        <v>0.515625</v>
       </c>
       <c r="F27" s="1">
         <v>0.46200000000000002</v>
       </c>
       <c r="G27">
-        <v>179</v>
+        <v>22.375</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>0.625</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>0.75</v>
       </c>
       <c r="J27">
-        <v>791</v>
+        <v>98.875</v>
       </c>
       <c r="K27">
-        <v>556</v>
+        <v>69.5</v>
       </c>
       <c r="L27">
-        <v>63</v>
+        <v>7.875</v>
       </c>
       <c r="M27">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="N27">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1698,43 +1704,43 @@
         <v>18</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>0.15625</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>0.1875</v>
       </c>
       <c r="D28">
-        <v>86</v>
+        <v>1.34375</v>
       </c>
       <c r="E28">
-        <v>31</v>
+        <v>0.484375</v>
       </c>
       <c r="F28" s="1">
         <v>0.45300000000000001</v>
       </c>
       <c r="G28">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>7</v>
+        <v>0.875</v>
       </c>
       <c r="J28">
-        <v>895</v>
+        <v>111.875</v>
       </c>
       <c r="K28">
-        <v>648</v>
+        <v>81</v>
       </c>
       <c r="L28">
-        <v>61</v>
+        <v>7.625</v>
       </c>
       <c r="M28">
-        <v>7</v>
+        <v>0.875</v>
       </c>
       <c r="N28">
-        <v>12</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1742,43 +1748,43 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>0.15625</v>
       </c>
       <c r="C29">
-        <v>14.8</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="D29">
-        <v>119</v>
+        <v>1.859375</v>
       </c>
       <c r="E29">
-        <v>30</v>
+        <v>0.46875</v>
       </c>
       <c r="F29" s="1">
         <v>0.52700000000000002</v>
       </c>
       <c r="G29">
-        <v>246</v>
+        <v>30.75</v>
       </c>
       <c r="H29">
-        <v>25</v>
+        <v>3.125</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>0.875</v>
       </c>
       <c r="J29">
-        <v>938</v>
+        <v>117.25</v>
       </c>
       <c r="K29">
-        <v>687</v>
+        <v>85.875</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>4.25</v>
       </c>
       <c r="N29">
-        <v>7</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1786,43 +1792,43 @@
         <v>24</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="C30">
-        <v>9.8000000000000007</v>
+        <v>0.15312500000000001</v>
       </c>
       <c r="D30">
-        <v>109</v>
+        <v>1.703125</v>
       </c>
       <c r="E30">
-        <v>30</v>
+        <v>0.46875</v>
       </c>
       <c r="F30" s="1">
         <v>0.42199999999999999</v>
       </c>
       <c r="G30">
-        <v>108</v>
+        <v>13.5</v>
       </c>
       <c r="H30">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>893</v>
+        <v>111.625</v>
       </c>
       <c r="K30">
-        <v>628</v>
+        <v>78.5</v>
       </c>
       <c r="L30">
-        <v>87</v>
+        <v>10.875</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>2.75</v>
       </c>
       <c r="N30">
-        <v>12</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1830,43 +1836,43 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="C31">
-        <v>9.3000000000000007</v>
+        <v>0.14531250000000001</v>
       </c>
       <c r="D31">
-        <v>99</v>
+        <v>1.546875</v>
       </c>
       <c r="E31">
-        <v>30</v>
+        <v>0.46875</v>
       </c>
       <c r="F31" s="1">
         <v>0.46400000000000002</v>
       </c>
       <c r="G31">
-        <v>165</v>
+        <v>20.625</v>
       </c>
       <c r="H31">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J31">
-        <v>905</v>
+        <v>113.125</v>
       </c>
       <c r="K31">
-        <v>625</v>
+        <v>78.125</v>
       </c>
       <c r="L31">
-        <v>111</v>
+        <v>13.875</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>4.25</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -1874,43 +1880,43 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>0.140625</v>
       </c>
       <c r="C32">
-        <v>10.7</v>
+        <v>0.16718749999999999</v>
       </c>
       <c r="D32">
-        <v>94</v>
+        <v>1.46875</v>
       </c>
       <c r="E32">
-        <v>29</v>
+        <v>0.453125</v>
       </c>
       <c r="F32" s="1">
         <v>0.51700000000000002</v>
       </c>
       <c r="G32">
-        <v>218</v>
+        <v>27.25</v>
       </c>
       <c r="H32">
-        <v>27</v>
+        <v>3.375</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>0.75</v>
       </c>
       <c r="J32">
-        <v>1081</v>
+        <v>135.125</v>
       </c>
       <c r="K32">
-        <v>844</v>
+        <v>105.5</v>
       </c>
       <c r="L32">
-        <v>106</v>
+        <v>13.25</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>2.75</v>
       </c>
       <c r="N32">
-        <v>13</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -1918,43 +1924,43 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>0.125</v>
       </c>
       <c r="C33">
-        <v>7.1</v>
+        <v>0.11093749999999999</v>
       </c>
       <c r="D33">
-        <v>76</v>
+        <v>1.1875</v>
       </c>
       <c r="E33">
-        <v>28</v>
-      </c>
-      <c r="F33" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="F33" s="2">
         <v>0.37</v>
       </c>
       <c r="G33">
-        <v>105</v>
+        <v>13.125</v>
       </c>
       <c r="H33">
-        <v>17</v>
+        <v>2.125</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>535</v>
+        <v>66.875</v>
       </c>
       <c r="K33">
-        <v>302</v>
+        <v>37.75</v>
       </c>
       <c r="L33">
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="M33">
-        <v>11</v>
+        <v>1.375</v>
       </c>
       <c r="N33">
-        <v>5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -1962,43 +1968,43 @@
         <v>28</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>9.375E-2</v>
       </c>
       <c r="C34">
-        <v>9.3000000000000007</v>
+        <v>0.14531250000000001</v>
       </c>
       <c r="D34">
-        <v>83</v>
+        <v>1.296875</v>
       </c>
       <c r="E34">
-        <v>27</v>
+        <v>0.421875</v>
       </c>
       <c r="F34" s="1">
         <v>0.53900000000000003</v>
       </c>
       <c r="G34">
-        <v>150</v>
+        <v>18.75</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="I34">
-        <v>11</v>
+        <v>1.375</v>
       </c>
       <c r="J34">
-        <v>799</v>
+        <v>99.875</v>
       </c>
       <c r="K34">
-        <v>579</v>
+        <v>72.375</v>
       </c>
       <c r="L34">
-        <v>95</v>
+        <v>11.875</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>1.75</v>
       </c>
       <c r="N34">
-        <v>9</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2006,43 +2012,43 @@
         <v>26</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>0.140625</v>
       </c>
       <c r="C35">
-        <v>9.5</v>
+        <v>0.1484375</v>
       </c>
       <c r="D35">
-        <v>84</v>
+        <v>1.3125</v>
       </c>
       <c r="E35">
-        <v>25</v>
-      </c>
-      <c r="F35" s="3">
+        <v>0.390625</v>
+      </c>
+      <c r="F35" s="2">
         <v>0.41</v>
       </c>
       <c r="G35">
-        <v>145</v>
+        <v>18.125</v>
       </c>
       <c r="H35">
-        <v>9</v>
+        <v>1.125</v>
       </c>
       <c r="I35">
-        <v>7</v>
+        <v>0.875</v>
       </c>
       <c r="J35">
-        <v>868</v>
+        <v>108.5</v>
       </c>
       <c r="K35">
-        <v>544</v>
+        <v>68</v>
       </c>
       <c r="L35">
-        <v>98</v>
+        <v>12.25</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>11</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2050,43 +2056,43 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>9.375E-2</v>
       </c>
       <c r="C36">
-        <v>6.2</v>
+        <v>9.6875000000000003E-2</v>
       </c>
       <c r="D36">
-        <v>55</v>
+        <v>0.859375</v>
       </c>
       <c r="E36">
-        <v>24</v>
+        <v>0.375</v>
       </c>
       <c r="F36" s="1">
         <v>0.39400000000000002</v>
       </c>
       <c r="G36">
-        <v>108</v>
+        <v>13.5</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>0.625</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>0.75</v>
       </c>
       <c r="J36">
-        <v>786</v>
+        <v>98.25</v>
       </c>
       <c r="K36">
-        <v>524</v>
+        <v>65.5</v>
       </c>
       <c r="L36">
-        <v>61</v>
+        <v>7.625</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="N36">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2094,43 +2100,43 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>0.109375</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>9.375E-2</v>
       </c>
       <c r="D37">
-        <v>79</v>
+        <v>1.234375</v>
       </c>
       <c r="E37">
-        <v>22</v>
+        <v>0.34375</v>
       </c>
       <c r="F37" s="1">
         <v>0.433</v>
       </c>
       <c r="G37">
-        <v>108</v>
+        <v>13.5</v>
       </c>
       <c r="H37">
-        <v>14</v>
+        <v>1.75</v>
       </c>
       <c r="I37">
-        <v>9</v>
+        <v>1.125</v>
       </c>
       <c r="J37">
-        <v>786</v>
+        <v>98.25</v>
       </c>
       <c r="K37">
-        <v>489</v>
+        <v>61.125</v>
       </c>
       <c r="L37">
-        <v>75</v>
+        <v>9.375</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>2.625</v>
       </c>
       <c r="N37">
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/UCL Team Goals 2526.xlsx
+++ b/UCL Team Goals 2526.xlsx
@@ -35,9 +35,6 @@
     <t>SOT</t>
   </si>
   <si>
-    <t>AVG POSS</t>
-  </si>
-  <si>
     <t>ARS</t>
   </si>
   <si>
@@ -152,28 +149,31 @@
     <t>XG</t>
   </si>
   <si>
-    <t>TOU IN BOX</t>
-  </si>
-  <si>
     <t>HEADERS</t>
   </si>
   <si>
-    <t>FAST BREAKS</t>
-  </si>
-  <si>
-    <t>PASS F3RD TOT</t>
-  </si>
-  <si>
-    <t>PASS F3RD SUC</t>
-  </si>
-  <si>
-    <t>CROSSES TOT</t>
-  </si>
-  <si>
-    <t>CROSS SUC</t>
-  </si>
-  <si>
-    <t>TROUGH BALL</t>
+    <t>AVG_POSS</t>
+  </si>
+  <si>
+    <t>TOU_IN_BOX</t>
+  </si>
+  <si>
+    <t>FAST_BREAKS</t>
+  </si>
+  <si>
+    <t>PASS_F3RD_TOT</t>
+  </si>
+  <si>
+    <t>PASS_F3RD_SUC</t>
+  </si>
+  <si>
+    <t>CROSSES_TOT</t>
+  </si>
+  <si>
+    <t>CROSS_SUC</t>
+  </si>
+  <si>
+    <t>TROUGH_BALL</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,10 +516,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -528,13 +528,13 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
         <v>44</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0.34375</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0.359375</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.328125</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0.34375</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0.328125</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0.234375</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>0.34375</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>0.265625</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>0.21875</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0.265625</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0.234375</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0.265625</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>0.171875</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>0.21875</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>0.265625</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>0.125</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0.234375</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0.140625</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>0.125</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>0.265625</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>0.25</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>0.296875</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>0.1875</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>0.203125</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>0.15625</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0.203125</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <v>0.15625</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>0.15625</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30">
         <v>7.8125E-2</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>7.8125E-2</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>0.140625</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>0.125</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34">
         <v>9.375E-2</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>0.140625</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>9.375E-2</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0.109375</v>
